--- a/06_Cap3Esercizio7_calcolo_bdi_cdi_aree_nielsen_svolto.xlsx
+++ b/06_Cap3Esercizio7_calcolo_bdi_cdi_aree_nielsen_svolto.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Code/IULM_DDM2324_Notebooks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alex/Code/DDM_2425/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B560C3A-229B-CC41-81A0-107C02A5B2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390AA84A-D8EB-0742-96DC-09101E53889E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="500" windowWidth="38400" windowHeight="20380" xr2:uid="{CF0EF3A0-60D6-9A4A-AC7D-4EF6AE00A296}"/>
+    <workbookView xWindow="-760" yWindow="500" windowWidth="38400" windowHeight="17500" activeTab="1" xr2:uid="{CF0EF3A0-60D6-9A4A-AC7D-4EF6AE00A296}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31DFC771-7D4E-8448-82FD-AA9127AD9ADA}" type="CELLRANGE">
+                    <a:fld id="{320C0960-1B1A-614E-BEFC-55410BE2CC9A}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -518,7 +518,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0B4F756D-9D26-5642-8BA7-7266EE620E8B}" type="CELLRANGE">
+                    <a:fld id="{21F56FF2-A26B-5641-8EE3-141E8DC8EBA8}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -552,7 +552,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FB2FEB4-9703-D34F-86D7-720E6EFFBAE4}" type="CELLRANGE">
+                    <a:fld id="{D5BAC029-22C5-2945-86B2-3C014A876B97}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -586,7 +586,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0369DE30-F5D3-1244-A58A-AB746AFB1805}" type="CELLRANGE">
+                    <a:fld id="{A12C5403-8E33-854D-9E5C-CD18A30A35DA}" type="CELLRANGE">
                       <a:rPr lang="en-GB"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -676,16 +676,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>122.62801755994521</c:v>
+                  <c:v>125.36103167308977</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>215.70620430061004</c:v>
+                  <c:v>152.83775031518246</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.501943865851622</c:v>
+                  <c:v>44.745480482453864</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71.695409509799674</c:v>
+                  <c:v>62.430171418536062</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,7 +2033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B3AFFD-1D79-C845-A353-62A565DAC744}">
   <dimension ref="E4:N9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -2194,35 +2194,35 @@
         <v>12</v>
       </c>
       <c r="F9" s="4">
-        <f>SUM(F5:F8)</f>
+        <f t="shared" ref="F9:M9" si="0">SUM(F5:F8)</f>
         <v>2330000</v>
       </c>
       <c r="G9" s="4">
-        <f>SUM(G5:G8)</f>
+        <f t="shared" si="0"/>
         <v>199430</v>
       </c>
       <c r="H9" s="4">
-        <f>SUM(H5:H8)</f>
+        <f t="shared" si="0"/>
         <v>162060</v>
       </c>
       <c r="I9" s="4">
-        <f>SUM(I5:I8)</f>
+        <f t="shared" si="0"/>
         <v>236850</v>
       </c>
       <c r="J9" s="4">
-        <f>SUM(J5:J8)</f>
+        <f t="shared" si="0"/>
         <v>231130</v>
       </c>
       <c r="K9" s="4">
-        <f>SUM(K5:K8)</f>
+        <f t="shared" si="0"/>
         <v>199760</v>
       </c>
       <c r="L9" s="4">
-        <f>SUM(L5:L8)</f>
+        <f t="shared" si="0"/>
         <v>204830</v>
       </c>
       <c r="M9" s="4">
-        <f>SUM(M5:M8)</f>
+        <f t="shared" si="0"/>
         <v>92844</v>
       </c>
       <c r="N9" s="4"/>
@@ -2237,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADAD4B10-46EB-40E7-9777-C87CFBFBAAF8}">
   <dimension ref="E4:N27"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2446,35 +2446,35 @@
         <v>14</v>
       </c>
       <c r="G11" s="5">
-        <f>G5/$F5</f>
-        <v>9.0794520547945207E-2</v>
+        <f>G5/$N5</f>
+        <v>0.1629854768825216</v>
       </c>
       <c r="H11" s="5">
-        <f>H5/$F5</f>
-        <v>4.6931506849315067E-2</v>
+        <f t="shared" ref="H11:M11" si="1">H5/$N5</f>
+        <v>8.4246868406686631E-2</v>
       </c>
       <c r="I11" s="5">
-        <f t="shared" ref="I11:N11" si="1">I5/$F5</f>
-        <v>7.1191780821917808E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.12779654848498262</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="1"/>
-        <v>0.12164383561643835</v>
+        <v>0.21836316154447674</v>
       </c>
       <c r="K11" s="5">
         <f t="shared" si="1"/>
-        <v>4.5054794520547947E-2</v>
+        <v>8.0877977288263958E-2</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="1"/>
-        <v>0.13319178082191782</v>
+        <v>0.23909290762353011</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" si="1"/>
-        <v>4.826301369863014E-2</v>
+        <v>8.6637059769538338E-2</v>
       </c>
       <c r="N11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I11:N11" si="2">N5/$F5</f>
         <v>0.55707123287671234</v>
       </c>
     </row>
@@ -2483,35 +2483,35 @@
         <v>15</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" ref="G12:N12" si="2">G6/$F6</f>
-        <v>0.13597500000000001</v>
+        <f t="shared" ref="G12:M12" si="3">G6/$N6</f>
+        <v>0.16917784358125762</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="2"/>
-        <v>9.2799999999999994E-2</v>
+        <f t="shared" si="3"/>
+        <v>0.11546022345534626</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="2"/>
-        <v>0.12039999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.14979968646577252</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="2"/>
-        <v>0.213975</v>
+        <f t="shared" si="3"/>
+        <v>0.26622415208898398</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="2"/>
-        <v>0.16139999999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.2008112076044492</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="2"/>
-        <v>2.3074999999999998E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.870953293353572E-2</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="2"/>
-        <v>5.6114999999999998E-2</v>
+        <f t="shared" si="3"/>
+        <v>6.9817353870654686E-2</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G12:N12" si="4">N6/$F6</f>
         <v>0.80374000000000001</v>
       </c>
     </row>
@@ -2520,35 +2520,35 @@
         <v>16</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" ref="G13:N13" si="3">G7/$F7</f>
-        <v>7.5685714285714287E-2</v>
+        <f t="shared" ref="G13:M13" si="5">G7/$N7</f>
+        <v>0.19496290626471974</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="3"/>
-        <v>8.6857142857142855E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.22373999057936883</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="3"/>
-        <v>0.11558571428571429</v>
+        <f t="shared" si="5"/>
+        <v>0.2977434644371173</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="3"/>
-        <v>3.0257142857142857E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.7941003297220909E-2</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="3"/>
-        <v>1.2971428571428571E-2</v>
+        <f t="shared" si="5"/>
+        <v>3.3413801224682051E-2</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="3"/>
-        <v>3.5700000000000003E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.1961552048987288E-2</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="3"/>
-        <v>3.1148571428571428E-2</v>
+        <f t="shared" si="5"/>
+        <v>8.0237282147903904E-2</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="G13:N13" si="6">N7/$F7</f>
         <v>0.38820571428571427</v>
       </c>
     </row>
@@ -2557,35 +2557,35 @@
         <v>17</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" ref="G14:N14" si="4">G8/$F8</f>
-        <v>5.1560000000000002E-2</v>
+        <f t="shared" ref="G14:M14" si="7">G8/$N8</f>
+        <v>7.8837438303129642E-2</v>
       </c>
       <c r="H14" s="5">
-        <f t="shared" si="4"/>
-        <v>5.9760000000000001E-2</v>
+        <f t="shared" si="7"/>
+        <v>9.1375587916893472E-2</v>
       </c>
       <c r="I14" s="5">
-        <f t="shared" si="4"/>
-        <v>0.11162</v>
+        <f t="shared" si="7"/>
+        <v>0.17067173901077057</v>
       </c>
       <c r="J14" s="5">
-        <f t="shared" si="4"/>
-        <v>7.1120000000000003E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.10874551225986386</v>
       </c>
       <c r="K14" s="5">
-        <f t="shared" si="4"/>
-        <v>0.18645999999999999</v>
+        <f t="shared" si="7"/>
+        <v>0.28510528987590289</v>
       </c>
       <c r="L14" s="5">
-        <f t="shared" si="4"/>
-        <v>0.14676</v>
+        <f t="shared" si="7"/>
+        <v>0.22440229723365607</v>
       </c>
       <c r="M14" s="5">
-        <f t="shared" si="4"/>
-        <v>2.6724000000000001E-2</v>
+        <f t="shared" si="7"/>
+        <v>4.0862135399783485E-2</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G14:N14" si="8">N8/$F8</f>
         <v>0.65400400000000003</v>
       </c>
     </row>
@@ -2594,35 +2594,35 @@
         <v>13</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" ref="G15:N15" si="5">G9/$F9</f>
-        <v>8.5592274678111591E-2</v>
+        <f t="shared" ref="G15:M15" si="9">G9/$N9</f>
+        <v>0.15029723325877381</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="5"/>
-        <v>6.9553648068669524E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.12213392980954162</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="5"/>
-        <v>0.10165236051502145</v>
+        <f t="shared" si="9"/>
+        <v>0.17849821840916902</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="5"/>
-        <v>9.9197424892703862E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.1741874317961209</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="5"/>
-        <v>8.5733905579399139E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.15054593248644965</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="5"/>
-        <v>8.7909871244635188E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.15436685698437869</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="5"/>
-        <v>3.9847210300429182E-2</v>
+        <f t="shared" si="9"/>
+        <v>6.9970397255566336E-2</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="G15:N15" si="10">N9/$F9</f>
         <v>0.56948669527897</v>
       </c>
     </row>
@@ -2632,34 +2632,34 @@
       </c>
       <c r="G17" s="5">
         <f>G11/G$15</f>
-        <v>1.0607793856326146</v>
+        <v>1.084421005953595</v>
       </c>
       <c r="H17" s="5">
-        <f t="shared" ref="H17:N17" si="6">H11/H$15</f>
-        <v>0.67475262840246897</v>
+        <f t="shared" ref="H17:N17" si="11">H11/H$15</f>
+        <v>0.68979085941198393</v>
       </c>
       <c r="I17" s="5">
-        <f t="shared" si="6"/>
-        <v>0.70034557447780665</v>
+        <f t="shared" si="11"/>
+        <v>0.71595419620399992</v>
       </c>
       <c r="J17" s="5">
-        <f t="shared" si="6"/>
-        <v>1.2262801755994521</v>
+        <f t="shared" si="11"/>
+        <v>1.2536103167308976</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="6"/>
-        <v>0.52551897893911048</v>
+        <f t="shared" si="11"/>
+        <v>0.53723123536096618</v>
       </c>
       <c r="L17" s="5">
-        <f t="shared" si="6"/>
-        <v>1.5150947093446689</v>
+        <f t="shared" si="11"/>
+        <v>1.5488616681994463</v>
       </c>
       <c r="M17" s="5">
-        <f t="shared" si="6"/>
-        <v>1.2112018215265201</v>
+        <f t="shared" si="11"/>
+        <v>1.2381959109521294</v>
       </c>
       <c r="N17" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.97819885432762255</v>
       </c>
     </row>
@@ -2668,35 +2668,35 @@
         <v>19</v>
       </c>
       <c r="G18" s="5">
-        <f t="shared" ref="G18:N18" si="7">G12/G$15</f>
-        <v>1.5886363636363636</v>
+        <f t="shared" ref="G18:N18" si="12">G12/G$15</f>
+        <v>1.1256218089522392</v>
       </c>
       <c r="H18" s="5">
-        <f t="shared" si="7"/>
-        <v>1.3342218931260026</v>
+        <f t="shared" si="12"/>
+        <v>0.94535747466242603</v>
       </c>
       <c r="I18" s="5">
-        <f t="shared" si="7"/>
-        <v>1.1844289634789951</v>
+        <f t="shared" si="12"/>
+        <v>0.8392223059750028</v>
       </c>
       <c r="J18" s="5">
-        <f t="shared" si="7"/>
-        <v>2.1570620430061003</v>
+        <f t="shared" si="12"/>
+        <v>1.5283775031518245</v>
       </c>
       <c r="K18" s="5">
-        <f t="shared" si="7"/>
-        <v>1.8825690828994792</v>
+        <f t="shared" si="12"/>
+        <v>1.3338866370403188</v>
       </c>
       <c r="L18" s="5">
-        <f t="shared" si="7"/>
-        <v>0.26248474344578432</v>
+        <f t="shared" si="12"/>
+        <v>0.18598249322677479</v>
       </c>
       <c r="M18" s="5">
-        <f t="shared" si="7"/>
-        <v>1.40825416828228</v>
+        <f t="shared" si="12"/>
+        <v>0.99781274094596517</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.4113411369624327</v>
       </c>
     </row>
@@ -2705,35 +2705,35 @@
         <v>20</v>
       </c>
       <c r="G19" s="5">
-        <f t="shared" ref="G19:N19" si="8">G13/G$15</f>
-        <v>0.88425870874850465</v>
+        <f t="shared" ref="G19:N19" si="13">G13/G$15</f>
+        <v>1.2971822703418827</v>
       </c>
       <c r="H19" s="5">
-        <f t="shared" si="8"/>
-        <v>1.2487791117928104</v>
+        <f t="shared" si="13"/>
+        <v>1.8319232905080021</v>
       </c>
       <c r="I19" s="5">
-        <f t="shared" si="8"/>
-        <v>1.1370686691396001</v>
+        <f t="shared" si="13"/>
+        <v>1.6680472617076998</v>
       </c>
       <c r="J19" s="5">
-        <f t="shared" si="8"/>
-        <v>0.30501943865851622</v>
+        <f t="shared" si="13"/>
+        <v>0.44745480482453864</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="8"/>
-        <v>0.15129870129870129</v>
+        <f t="shared" si="13"/>
+        <v>0.22195087354943691</v>
       </c>
       <c r="L19" s="5">
-        <f t="shared" si="8"/>
-        <v>0.40609773958892748</v>
+        <f t="shared" si="13"/>
+        <v>0.59573378538304655</v>
       </c>
       <c r="M19" s="5">
-        <f t="shared" si="8"/>
-        <v>0.78170017910227296</v>
+        <f t="shared" si="13"/>
+        <v>1.146731836534211</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.68167652994166428</v>
       </c>
     </row>
@@ -2742,35 +2742,35 @@
         <v>21</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" ref="G20:N20" si="9">G14/G$15</f>
-        <v>0.6023908138193852</v>
+        <f t="shared" ref="G20:N20" si="14">G14/G$15</f>
+        <v>0.5245435101748781</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="9"/>
-        <v>0.85919289152165867</v>
+        <f t="shared" si="14"/>
+        <v>0.74815891095444653</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="9"/>
-        <v>1.0980561536837661</v>
+        <f t="shared" si="14"/>
+        <v>0.95615373941459791</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="9"/>
-        <v>0.71695409509799679</v>
+        <f t="shared" si="14"/>
+        <v>0.62430171418536062</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="9"/>
-        <v>2.1748688426111333</v>
+        <f t="shared" si="14"/>
+        <v>1.8938093189702396</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="9"/>
-        <v>1.669437094175658</v>
+        <f t="shared" si="14"/>
+        <v>1.4536947996315341</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" si="9"/>
-        <v>0.67066175520227489</v>
+        <f t="shared" si="14"/>
+        <v>0.58399175940840886</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1.1484096211933945</v>
       </c>
     </row>
@@ -2804,27 +2804,27 @@
         <v>Bosch</v>
       </c>
       <c r="H23" s="5" t="str">
-        <f t="shared" ref="H23:M23" si="10">H4</f>
+        <f t="shared" ref="H23:M23" si="15">H4</f>
         <v>Candy</v>
       </c>
       <c r="I23" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>Samsung</v>
       </c>
       <c r="J23" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>Miele</v>
       </c>
       <c r="K23" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>ElectroLux</v>
       </c>
       <c r="L23" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>Indesit</v>
       </c>
       <c r="M23" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="15"/>
         <v>LG</v>
       </c>
       <c r="N23" s="8"/>
@@ -2835,149 +2835,149 @@
         <v>Area 1</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" ref="G24:N27" si="11">100*G17</f>
-        <v>106.07793856326147</v>
+        <f t="shared" ref="G24:N27" si="16">100*G17</f>
+        <v>108.44210059535951</v>
       </c>
       <c r="H24" s="10">
-        <f t="shared" si="11"/>
-        <v>67.475262840246899</v>
+        <f t="shared" si="16"/>
+        <v>68.979085941198392</v>
       </c>
       <c r="I24" s="10">
-        <f t="shared" si="11"/>
-        <v>70.034557447780671</v>
+        <f t="shared" si="16"/>
+        <v>71.595419620399994</v>
       </c>
       <c r="J24" s="10">
-        <f t="shared" si="11"/>
-        <v>122.62801755994521</v>
+        <f t="shared" si="16"/>
+        <v>125.36103167308977</v>
       </c>
       <c r="K24" s="10">
-        <f t="shared" si="11"/>
-        <v>52.551897893911047</v>
+        <f t="shared" si="16"/>
+        <v>53.723123536096615</v>
       </c>
       <c r="L24" s="10">
-        <f t="shared" si="11"/>
-        <v>151.50947093446689</v>
+        <f t="shared" si="16"/>
+        <v>154.88616681994463</v>
       </c>
       <c r="M24" s="11">
-        <f t="shared" si="11"/>
-        <v>121.12018215265201</v>
+        <f t="shared" si="16"/>
+        <v>123.81959109521294</v>
       </c>
       <c r="N24" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>97.819885432762248</v>
       </c>
     </row>
     <row r="25" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E25" t="str">
-        <f t="shared" ref="E25:E27" si="12">E6</f>
+        <f t="shared" ref="E25:E27" si="17">E6</f>
         <v>Area 2</v>
       </c>
       <c r="G25" s="9">
-        <f t="shared" si="11"/>
-        <v>158.86363636363637</v>
+        <f t="shared" si="16"/>
+        <v>112.56218089522392</v>
       </c>
       <c r="H25" s="10">
-        <f t="shared" si="11"/>
-        <v>133.42218931260027</v>
+        <f t="shared" si="16"/>
+        <v>94.535747466242597</v>
       </c>
       <c r="I25" s="10">
-        <f t="shared" si="11"/>
-        <v>118.44289634789951</v>
+        <f t="shared" si="16"/>
+        <v>83.922230597500274</v>
       </c>
       <c r="J25" s="10">
-        <f t="shared" si="11"/>
-        <v>215.70620430061004</v>
+        <f t="shared" si="16"/>
+        <v>152.83775031518246</v>
       </c>
       <c r="K25" s="10">
-        <f t="shared" si="11"/>
-        <v>188.25690828994792</v>
+        <f t="shared" si="16"/>
+        <v>133.3886637040319</v>
       </c>
       <c r="L25" s="10">
-        <f t="shared" si="11"/>
-        <v>26.248474344578433</v>
+        <f t="shared" si="16"/>
+        <v>18.598249322677479</v>
       </c>
       <c r="M25" s="11">
-        <f t="shared" si="11"/>
-        <v>140.82541682822801</v>
+        <f t="shared" si="16"/>
+        <v>99.781274094596512</v>
       </c>
       <c r="N25" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>141.13411369624328</v>
       </c>
     </row>
     <row r="26" spans="5:14" x14ac:dyDescent="0.2">
       <c r="E26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>Area 3</v>
       </c>
       <c r="G26" s="9">
-        <f t="shared" si="11"/>
-        <v>88.42587087485046</v>
+        <f t="shared" si="16"/>
+        <v>129.71822703418826</v>
       </c>
       <c r="H26" s="10">
-        <f t="shared" si="11"/>
-        <v>124.87791117928104</v>
+        <f t="shared" si="16"/>
+        <v>183.1923290508002</v>
       </c>
       <c r="I26" s="10">
-        <f t="shared" si="11"/>
-        <v>113.70686691396001</v>
+        <f t="shared" si="16"/>
+        <v>166.80472617076998</v>
       </c>
       <c r="J26" s="10">
-        <f t="shared" si="11"/>
-        <v>30.501943865851622</v>
+        <f t="shared" si="16"/>
+        <v>44.745480482453864</v>
       </c>
       <c r="K26" s="10">
-        <f t="shared" si="11"/>
-        <v>15.129870129870129</v>
+        <f t="shared" si="16"/>
+        <v>22.195087354943691</v>
       </c>
       <c r="L26" s="10">
-        <f t="shared" si="11"/>
-        <v>40.609773958892745</v>
+        <f t="shared" si="16"/>
+        <v>59.573378538304652</v>
       </c>
       <c r="M26" s="11">
-        <f t="shared" si="11"/>
-        <v>78.170017910227301</v>
+        <f t="shared" si="16"/>
+        <v>114.67318365342109</v>
       </c>
       <c r="N26" s="12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>68.167652994166431</v>
       </c>
     </row>
     <row r="27" spans="5:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E27" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="17"/>
         <v>Area 4</v>
       </c>
       <c r="G27" s="13">
-        <f t="shared" si="11"/>
-        <v>60.239081381938519</v>
+        <f t="shared" si="16"/>
+        <v>52.454351017487809</v>
       </c>
       <c r="H27" s="14">
-        <f t="shared" si="11"/>
-        <v>85.919289152165874</v>
+        <f t="shared" si="16"/>
+        <v>74.815891095444655</v>
       </c>
       <c r="I27" s="14">
-        <f t="shared" si="11"/>
-        <v>109.80561536837661</v>
+        <f t="shared" si="16"/>
+        <v>95.615373941459794</v>
       </c>
       <c r="J27" s="14">
-        <f t="shared" si="11"/>
-        <v>71.695409509799674</v>
+        <f t="shared" si="16"/>
+        <v>62.430171418536062</v>
       </c>
       <c r="K27" s="14">
-        <f t="shared" si="11"/>
-        <v>217.48688426111335</v>
+        <f t="shared" si="16"/>
+        <v>189.38093189702397</v>
       </c>
       <c r="L27" s="14">
-        <f t="shared" si="11"/>
-        <v>166.9437094175658</v>
+        <f t="shared" si="16"/>
+        <v>145.36947996315342</v>
       </c>
       <c r="M27" s="15">
-        <f t="shared" si="11"/>
-        <v>67.066175520227489</v>
+        <f t="shared" si="16"/>
+        <v>58.399175940840884</v>
       </c>
       <c r="N27" s="16">
-        <f t="shared" si="11"/>
+        <f t="shared" si="16"/>
         <v>114.84096211933945</v>
       </c>
     </row>
